--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value755.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value755.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9511807189635783</v>
+        <v>1.003159761428833</v>
       </c>
       <c r="B1">
-        <v>2.254731288569163</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>4.974424065004916</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.384983581132173</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.265556912059796</v>
+        <v>1.215029120445251</v>
       </c>
     </row>
   </sheetData>
